--- a/Akan/Ananse00/AkanEnglishAligned.xlsx
+++ b/Akan/Ananse00/AkanEnglishAligned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Truth in Translation\Akan\Ananse00\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC195F9-4E3A-4214-AEB0-7B180C721856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DBB515-BCAF-4661-8FC2-F56C980848C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34950" yWindow="2280" windowWidth="18420" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30510" yWindow="1710" windowWidth="25515" windowHeight="14310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>AKAN</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Na omaa so se ode koro, na oko duruu dua a, ode eko sen so, ase, na ode homa sa toa no so, na ode yaneye, na toa no bedii n' anim', na ode kaa dua no se oforo.</t>
   </si>
   <si>
-    <t>Oforo, foro, foro a, twon ! Na ode aka no bio, nso oforo, foro, foro, twon!</t>
-  </si>
-  <si>
     <t>Na ne ba, Ntikuma, gyina ho a, ose, "E ! w'ani awu, nkra wo danee toa no too w'akyi a, nkra watimi afo'."</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>So he took it up to go with it, and when he reached beneath the tree where he was going to hang it, he took a string, and tied it to the gourd, and hung it in front of him, and he set himself to climb the tree.</t>
   </si>
   <si>
-    <t>He climbed, and climbed, and climbed; in vain. He strove again, again he made to climb, and climb, and climb; in vain.</t>
-  </si>
-  <si>
     <t>Now, his son, Ntikuma, who was standing by, said, " Oh, your eyes have surely died (for shame), would it not have been better if you had turned round the gourd and put it on your back, then doubtless you would have been able to climb? "</t>
   </si>
   <si>
@@ -104,6 +98,18 @@
   </si>
   <si>
     <t>This, my story, which I have related, if it be sweet, (or) if it be not sweet, take some elsewhere, and let some come back to me.</t>
+  </si>
+  <si>
+    <t>Oforo, foro, foro a, twon !</t>
+  </si>
+  <si>
+    <t>Na ode aka no bio, nso oforo, foro, foro, twon!</t>
+  </si>
+  <si>
+    <t>He climbed, and climbed, and climbed; in vain.</t>
+  </si>
+  <si>
+    <t>He strove again, again he made to climb, and climb, and climb; in vain.</t>
   </si>
 </sst>
 </file>
@@ -474,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -499,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -507,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
@@ -515,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
@@ -523,79 +529,87 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="12" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
